--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -522,9 +522,109 @@
         <v xml:space="preserve">Lorem ipsum dolor sit amet consectetur adipisicing elit. </v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Software Engineer</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Tech Innovations</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Bangalore, India</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E7" t="str">
+        <v>24/02/2024</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Seeking a skilled software engineer with experience in full-stack development. Must be proficient in modern frameworks and agile methodologies.</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Product Manager</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Productive Inc</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E8" t="str">
+        <v>25/02/2024</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Looking for a passionate Product Manager to lead product development teams. Experience in product lifecycle management required.</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>UX/UI Designer</v>
+      </c>
+      <c r="B9" t="str">
+        <v>DesignX Studio</v>
+      </c>
+      <c r="C9" t="str">
+        <v>New Delhi, India</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Contract</v>
+      </c>
+      <c r="E9" t="str">
+        <v>26/02/2024</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Creative UX/UI Designer needed to create intuitive and user-friendly digital experiences. Proficiency in Sketch or Figma is a must.</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Digital Marketing Specialist</v>
+      </c>
+      <c r="B10" t="str">
+        <v>MarketGurus</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Kolkata, India</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Part-time</v>
+      </c>
+      <c r="E10" t="str">
+        <v>27/02/2024</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Seeking a Digital Marketing Specialist with expertise in SEO, SEM, and social media campaigns. Ability to analyze performance metrics and adjust strategies accordingly is essential.</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Cybersecurity Analyst</v>
+      </c>
+      <c r="B11" t="str">
+        <v>SecureTech Solutions</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E11" t="str">
+        <v>28/02/2024</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Cybersecurity Analyst needed to protect IT infrastructure from cyber threats. Knowledge of firewalls, VPN, and intrusion detection systems required.</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
   </ignoredErrors>
 </worksheet>
 </file>